--- a/src/app_data/2023_met_data.xlsx
+++ b/src/app_data/2023_met_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joconnel\source\repos\souris-gui-test\src\app_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DC336-2E6D-49E8-AF2E-AB4D6DA8288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AB831-4421-4C4C-8734-65C5C884CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5610" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>05NCM01_wind_speed</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>05NB016_sol_rad</t>
+  </si>
+  <si>
+    <t>Oxbow</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,12 +169,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,7 +530,7 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -545,8 +564,11 @@
       <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="13">
         <v>44927</v>
       </c>
@@ -561,7 +583,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="13">
         <v>44928</v>
       </c>
@@ -576,7 +598,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="13">
         <v>44929</v>
       </c>
@@ -591,7 +613,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="13">
         <v>44930</v>
       </c>
@@ -606,7 +628,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="13">
         <v>44931</v>
       </c>
@@ -621,7 +643,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="13">
         <v>44932</v>
       </c>
@@ -636,7 +658,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="13">
         <v>44933</v>
       </c>
@@ -651,7 +673,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="13">
         <v>44934</v>
       </c>
@@ -666,7 +688,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="13">
         <v>44935</v>
       </c>
@@ -681,7 +703,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="13">
         <v>44936</v>
       </c>
@@ -696,7 +718,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="13">
         <v>44937</v>
       </c>
@@ -711,7 +733,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="13">
         <v>44938</v>
       </c>
@@ -726,7 +748,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="13">
         <v>44939</v>
       </c>
@@ -741,7 +763,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="13">
         <v>44940</v>
       </c>
@@ -756,7 +778,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="13">
         <v>44941</v>
       </c>
@@ -1731,7 +1753,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="13">
         <v>45006</v>
       </c>
@@ -1746,7 +1768,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="13">
         <v>45007</v>
       </c>
@@ -1761,7 +1783,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" s="13">
         <v>45008</v>
       </c>
@@ -1776,7 +1798,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" s="13">
         <v>45009</v>
       </c>
@@ -1791,7 +1813,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" s="13">
         <v>45010</v>
       </c>
@@ -1806,7 +1828,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="13">
         <v>45011</v>
       </c>
@@ -1821,7 +1843,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="13">
         <v>45012</v>
       </c>
@@ -1836,7 +1858,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="13">
         <v>45013</v>
       </c>
@@ -1851,7 +1873,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="13">
         <v>45014</v>
       </c>
@@ -1866,7 +1888,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="13">
         <v>45015</v>
       </c>
@@ -1881,7 +1903,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="13">
         <v>45016</v>
       </c>
@@ -1896,7 +1918,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="13">
         <v>45017</v>
       </c>
@@ -1930,8 +1952,11 @@
       <c r="K92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="13">
         <v>45018</v>
       </c>
@@ -1965,8 +1990,11 @@
       <c r="K93" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="13">
         <v>45019</v>
       </c>
@@ -2000,8 +2028,11 @@
       <c r="K94" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="13">
         <v>45020</v>
       </c>
@@ -2035,8 +2066,11 @@
       <c r="K95" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="13">
         <v>45021</v>
       </c>
@@ -2070,8 +2104,11 @@
       <c r="K96" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="13">
         <v>45022</v>
       </c>
@@ -2105,8 +2142,11 @@
       <c r="K97" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="13">
         <v>45023</v>
       </c>
@@ -2140,8 +2180,11 @@
       <c r="K98" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="13">
         <v>45024</v>
       </c>
@@ -2175,8 +2218,11 @@
       <c r="K99" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="13">
         <v>45025</v>
       </c>
@@ -2210,8 +2256,11 @@
       <c r="K100" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="13">
         <v>45026</v>
       </c>
@@ -2245,8 +2294,11 @@
       <c r="K101" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="13">
         <v>45027</v>
       </c>
@@ -2280,8 +2332,11 @@
       <c r="K102" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="13">
         <v>45028</v>
       </c>
@@ -2315,8 +2370,11 @@
       <c r="K103" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="13">
         <v>45029</v>
       </c>
@@ -2350,8 +2408,11 @@
       <c r="K104" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="13">
         <v>45030</v>
       </c>
@@ -2385,8 +2446,11 @@
       <c r="K105" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="13">
         <v>45031</v>
       </c>
@@ -2420,8 +2484,11 @@
       <c r="K106" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="13">
         <v>45032</v>
       </c>
@@ -2455,8 +2522,11 @@
       <c r="K107" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="13">
         <v>45033</v>
       </c>
@@ -2490,8 +2560,11 @@
       <c r="K108" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="13">
         <v>45034</v>
       </c>
@@ -2525,8 +2598,11 @@
       <c r="K109" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="13">
         <v>45035</v>
       </c>
@@ -2560,8 +2636,11 @@
       <c r="K110" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="13">
         <v>45036</v>
       </c>
@@ -2595,8 +2674,11 @@
       <c r="K111" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="13">
         <v>45037</v>
       </c>
@@ -2630,8 +2712,11 @@
       <c r="K112" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="13">
         <v>45038</v>
       </c>
@@ -2665,8 +2750,11 @@
       <c r="K113" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="13">
         <v>45039</v>
       </c>
@@ -2700,8 +2788,11 @@
       <c r="K114" s="4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="13">
         <v>45040</v>
       </c>
@@ -2735,8 +2826,11 @@
       <c r="K115" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="13">
         <v>45041</v>
       </c>
@@ -2770,8 +2864,11 @@
       <c r="K116" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="13">
         <v>45042</v>
       </c>
@@ -2805,8 +2902,11 @@
       <c r="K117" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="13">
         <v>45043</v>
       </c>
@@ -2840,8 +2940,11 @@
       <c r="K118" s="4">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="13">
         <v>45044</v>
       </c>
@@ -2875,8 +2978,11 @@
       <c r="K119" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="13">
         <v>45045</v>
       </c>
@@ -2910,8 +3016,11 @@
       <c r="K120" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="13">
         <v>45046</v>
       </c>
@@ -2945,8 +3054,11 @@
       <c r="K121" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="13">
         <v>45047</v>
       </c>
@@ -2980,8 +3092,11 @@
       <c r="K122" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="13">
         <v>45048</v>
       </c>
@@ -3015,8 +3130,11 @@
       <c r="K123" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="13">
         <v>45049</v>
       </c>
@@ -3050,8 +3168,11 @@
       <c r="K124" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="13">
         <v>45050</v>
       </c>
@@ -3085,8 +3206,11 @@
       <c r="K125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="13">
         <v>45051</v>
       </c>
@@ -3120,8 +3244,11 @@
       <c r="K126" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="13">
         <v>45052</v>
       </c>
@@ -3155,8 +3282,11 @@
       <c r="K127" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="13">
         <v>45053</v>
       </c>
@@ -3190,8 +3320,11 @@
       <c r="K128" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="13">
         <v>45054</v>
       </c>
@@ -3225,8 +3358,11 @@
       <c r="K129" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="13">
         <v>45055</v>
       </c>
@@ -3260,8 +3396,11 @@
       <c r="K130" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="13">
         <v>45056</v>
       </c>
@@ -3295,8 +3434,11 @@
       <c r="K131" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="13">
         <v>45057</v>
       </c>
@@ -3330,8 +3472,11 @@
       <c r="K132" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="13">
         <v>45058</v>
       </c>
@@ -3365,8 +3510,11 @@
       <c r="K133" s="9">
         <v>12.199999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133" s="3">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="13">
         <v>45059</v>
       </c>
@@ -3400,8 +3548,11 @@
       <c r="K134" s="9">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="13">
         <v>45060</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="K135" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="13">
         <v>45061</v>
       </c>
@@ -3470,8 +3624,11 @@
       <c r="K136" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="13">
         <v>45062</v>
       </c>
@@ -3505,8 +3662,11 @@
       <c r="K137" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="13">
         <v>45063</v>
       </c>
@@ -3540,8 +3700,11 @@
       <c r="K138" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="13">
         <v>45064</v>
       </c>
@@ -3575,8 +3738,11 @@
       <c r="K139" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="13">
         <v>45065</v>
       </c>
@@ -3610,8 +3776,11 @@
       <c r="K140" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="13">
         <v>45066</v>
       </c>
@@ -3645,8 +3814,11 @@
       <c r="K141" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="13">
         <v>45067</v>
       </c>
@@ -3680,8 +3852,11 @@
       <c r="K142" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="13">
         <v>45068</v>
       </c>
@@ -3715,8 +3890,11 @@
       <c r="K143" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="13">
         <v>45069</v>
       </c>
@@ -3750,8 +3928,11 @@
       <c r="K144" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="13">
         <v>45070</v>
       </c>
@@ -3785,8 +3966,11 @@
       <c r="K145" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="13">
         <v>45071</v>
       </c>
@@ -3820,8 +4004,11 @@
       <c r="K146" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="13">
         <v>45072</v>
       </c>
@@ -3855,8 +4042,11 @@
       <c r="K147" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="13">
         <v>45073</v>
       </c>
@@ -3890,8 +4080,11 @@
       <c r="K148" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="13">
         <v>45074</v>
       </c>
@@ -3925,8 +4118,11 @@
       <c r="K149" s="9">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="13">
         <v>45075</v>
       </c>
@@ -3960,8 +4156,11 @@
       <c r="K150" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="13">
         <v>45076</v>
       </c>
@@ -3995,8 +4194,11 @@
       <c r="K151" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="13">
         <v>45077</v>
       </c>
@@ -4030,8 +4232,11 @@
       <c r="K152" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="13">
         <v>45078</v>
       </c>
@@ -4065,8 +4270,11 @@
       <c r="K153" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="13">
         <v>45079</v>
       </c>
@@ -4100,8 +4308,11 @@
       <c r="K154" s="9">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="13">
         <v>45080</v>
       </c>
@@ -4135,8 +4346,11 @@
       <c r="K155" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="13">
         <v>45081</v>
       </c>
@@ -4170,8 +4384,11 @@
       <c r="K156" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="13">
         <v>45082</v>
       </c>
@@ -4205,8 +4422,11 @@
       <c r="K157" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="13">
         <v>45083</v>
       </c>
@@ -4240,8 +4460,11 @@
       <c r="K158" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="13">
         <v>45084</v>
       </c>
@@ -4275,8 +4498,11 @@
       <c r="K159" s="9">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="13">
         <v>45085</v>
       </c>
@@ -4310,8 +4536,11 @@
       <c r="K160" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="13">
         <v>45086</v>
       </c>
@@ -4345,8 +4574,11 @@
       <c r="K161" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="13">
         <v>45087</v>
       </c>
@@ -4380,8 +4612,11 @@
       <c r="K162" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="13">
         <v>45088</v>
       </c>
@@ -4415,8 +4650,11 @@
       <c r="K163" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="13">
         <v>45089</v>
       </c>
@@ -4450,8 +4688,11 @@
       <c r="K164" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="13">
         <v>45090</v>
       </c>
@@ -4485,8 +4726,11 @@
       <c r="K165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="13">
         <v>45091</v>
       </c>
@@ -4520,8 +4764,11 @@
       <c r="K166" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="13">
         <v>45092</v>
       </c>
@@ -4555,8 +4802,11 @@
       <c r="K167" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="13">
         <v>45093</v>
       </c>
@@ -4590,8 +4840,11 @@
       <c r="K168" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="13">
         <v>45094</v>
       </c>
@@ -4625,8 +4878,11 @@
       <c r="K169" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="13">
         <v>45095</v>
       </c>
@@ -4660,8 +4916,11 @@
       <c r="K170" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="13">
         <v>45096</v>
       </c>
@@ -4695,8 +4954,11 @@
       <c r="K171" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171" s="3">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="13">
         <v>45097</v>
       </c>
@@ -4730,8 +4992,11 @@
       <c r="K172" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="13">
         <v>45098</v>
       </c>
@@ -4765,8 +5030,11 @@
       <c r="K173" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="13">
         <v>45099</v>
       </c>
@@ -4800,8 +5068,11 @@
       <c r="K174" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="13">
         <v>45100</v>
       </c>
@@ -4835,8 +5106,11 @@
       <c r="K175" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="13">
         <v>45101</v>
       </c>
@@ -4870,8 +5144,11 @@
       <c r="K176" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="13">
         <v>45102</v>
       </c>
@@ -4905,8 +5182,11 @@
       <c r="K177" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="13">
         <v>45103</v>
       </c>
@@ -4940,8 +5220,11 @@
       <c r="K178" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="13">
         <v>45104</v>
       </c>
@@ -4975,8 +5258,11 @@
       <c r="K179" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="13">
         <v>45105</v>
       </c>
@@ -5010,8 +5296,11 @@
       <c r="K180" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="13">
         <v>45106</v>
       </c>
@@ -5045,8 +5334,11 @@
       <c r="K181" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="13">
         <v>45107</v>
       </c>
@@ -5080,8 +5372,11 @@
       <c r="K182" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="13">
         <v>45108</v>
       </c>
@@ -5115,8 +5410,11 @@
       <c r="K183" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="13">
         <v>45109</v>
       </c>
@@ -5150,8 +5448,11 @@
       <c r="K184" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="13">
         <v>45110</v>
       </c>
@@ -5185,8 +5486,11 @@
       <c r="K185" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="13">
         <v>45111</v>
       </c>
@@ -5220,8 +5524,11 @@
       <c r="K186" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="13">
         <v>45112</v>
       </c>
@@ -5255,8 +5562,11 @@
       <c r="K187" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="13">
         <v>45113</v>
       </c>
@@ -5290,8 +5600,11 @@
       <c r="K188" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="13">
         <v>45114</v>
       </c>
@@ -5325,8 +5638,11 @@
       <c r="K189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="13">
         <v>45115</v>
       </c>
@@ -5360,8 +5676,11 @@
       <c r="K190" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="13">
         <v>45116</v>
       </c>
@@ -5395,8 +5714,11 @@
       <c r="K191" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="13">
         <v>45117</v>
       </c>
@@ -5430,8 +5752,11 @@
       <c r="K192" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="13">
         <v>45118</v>
       </c>
@@ -5465,8 +5790,11 @@
       <c r="K193" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="13">
         <v>45119</v>
       </c>
@@ -5500,8 +5828,11 @@
       <c r="K194" s="9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="13">
         <v>45120</v>
       </c>
@@ -5535,8 +5866,11 @@
       <c r="K195" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="13">
         <v>45121</v>
       </c>
@@ -5570,8 +5904,11 @@
       <c r="K196" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="13">
         <v>45122</v>
       </c>
@@ -5605,8 +5942,11 @@
       <c r="K197" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="13">
         <v>45123</v>
       </c>
@@ -5640,8 +5980,11 @@
       <c r="K198" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="13">
         <v>45124</v>
       </c>
@@ -5675,8 +6018,11 @@
       <c r="K199" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="13">
         <v>45125</v>
       </c>
@@ -5710,8 +6056,11 @@
       <c r="K200" s="9">
         <v>4.6000000000000005</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="13">
         <v>45126</v>
       </c>
@@ -5745,8 +6094,11 @@
       <c r="K201" s="9">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="13">
         <v>45127</v>
       </c>
@@ -5780,8 +6132,11 @@
       <c r="K202" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="13">
         <v>45128</v>
       </c>
@@ -5815,8 +6170,11 @@
       <c r="K203" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="13">
         <v>45129</v>
       </c>
@@ -5850,8 +6208,11 @@
       <c r="K204" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="13">
         <v>45130</v>
       </c>
@@ -5885,8 +6246,11 @@
       <c r="K205" s="9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="13">
         <v>45131</v>
       </c>
@@ -5920,8 +6284,11 @@
       <c r="K206" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="13">
         <v>45132</v>
       </c>
@@ -5955,8 +6322,11 @@
       <c r="K207" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="13">
         <v>45133</v>
       </c>
@@ -5990,8 +6360,11 @@
       <c r="K208" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="13">
         <v>45134</v>
       </c>
@@ -6025,8 +6398,11 @@
       <c r="K209" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="13">
         <v>45135</v>
       </c>
@@ -6060,8 +6436,11 @@
       <c r="K210" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="13">
         <v>45136</v>
       </c>
@@ -6095,8 +6474,11 @@
       <c r="K211" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="13">
         <v>45137</v>
       </c>
@@ -6130,8 +6512,11 @@
       <c r="K212" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="13">
         <v>45138</v>
       </c>
@@ -6165,8 +6550,11 @@
       <c r="K213" s="9">
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="13">
         <v>45139</v>
       </c>
@@ -6200,8 +6588,11 @@
       <c r="K214" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="13">
         <v>45140</v>
       </c>
@@ -6235,8 +6626,11 @@
       <c r="K215" s="9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="13">
         <v>45141</v>
       </c>
@@ -6270,8 +6664,11 @@
       <c r="K216" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="13">
         <v>45142</v>
       </c>
@@ -6305,8 +6702,11 @@
       <c r="K217" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="13">
         <v>45143</v>
       </c>
@@ -6340,8 +6740,11 @@
       <c r="K218" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="13">
         <v>45144</v>
       </c>
@@ -6375,8 +6778,11 @@
       <c r="K219" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="13">
         <v>45145</v>
       </c>
@@ -6410,8 +6816,11 @@
       <c r="K220" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="13">
         <v>45146</v>
       </c>
@@ -6445,8 +6854,11 @@
       <c r="K221" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="13">
         <v>45147</v>
       </c>
@@ -6480,8 +6892,11 @@
       <c r="K222" s="9">
         <v>5.6000000000000005</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="L222" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="13">
         <v>45148</v>
       </c>
@@ -6515,8 +6930,11 @@
       <c r="K223" s="9">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="L223" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="13">
         <v>45149</v>
       </c>
@@ -6550,8 +6968,11 @@
       <c r="K224" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="13">
         <v>45150</v>
       </c>
@@ -6585,8 +7006,11 @@
       <c r="K225" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="L225" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="13">
         <v>45151</v>
       </c>
@@ -6620,8 +7044,11 @@
       <c r="K226" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="13">
         <v>45152</v>
       </c>
@@ -6655,8 +7082,11 @@
       <c r="K227" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="L227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="13">
         <v>45153</v>
       </c>
@@ -6690,8 +7120,11 @@
       <c r="K228" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="L228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="13">
         <v>45154</v>
       </c>
@@ -6725,8 +7158,11 @@
       <c r="K229" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="L229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="13">
         <v>45155</v>
       </c>
@@ -6760,8 +7196,11 @@
       <c r="K230" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="L230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" s="13">
         <v>45156</v>
       </c>
@@ -6795,8 +7234,11 @@
       <c r="K231" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="L231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="13">
         <v>45157</v>
       </c>
@@ -6830,8 +7272,11 @@
       <c r="K232" s="9">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="L232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="13">
         <v>45158</v>
       </c>
@@ -6865,8 +7310,11 @@
       <c r="K233" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" s="13">
         <v>45159</v>
       </c>
@@ -6900,8 +7348,11 @@
       <c r="K234" s="9">
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="13">
         <v>45160</v>
       </c>
@@ -6935,8 +7386,11 @@
       <c r="K235" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="13">
         <v>45161</v>
       </c>
@@ -6970,8 +7424,11 @@
       <c r="K236" s="9">
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="L236" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="13">
         <v>45162</v>
       </c>
@@ -7005,8 +7462,11 @@
       <c r="K237" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="L237" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="13">
         <v>45163</v>
       </c>
@@ -7040,8 +7500,11 @@
       <c r="K238" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="L238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="13">
         <v>45164</v>
       </c>
@@ -7075,8 +7538,11 @@
       <c r="K239" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="L239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" s="13">
         <v>45165</v>
       </c>
@@ -7110,8 +7576,11 @@
       <c r="K240" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="L240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="13">
         <v>45166</v>
       </c>
@@ -7145,8 +7614,11 @@
       <c r="K241" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="13">
         <v>45167</v>
       </c>
@@ -7180,8 +7652,11 @@
       <c r="K242" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" s="13">
         <v>45168</v>
       </c>
@@ -7215,8 +7690,11 @@
       <c r="K243" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" s="13">
         <v>45169</v>
       </c>
@@ -7250,8 +7728,11 @@
       <c r="K244" s="9">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" s="13">
         <v>45170</v>
       </c>
@@ -7285,8 +7766,11 @@
       <c r="K245" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" s="13">
         <v>45171</v>
       </c>
@@ -7320,8 +7804,11 @@
       <c r="K246" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="L246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" s="13">
         <v>45172</v>
       </c>
@@ -7355,8 +7842,11 @@
       <c r="K247" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" s="13">
         <v>45173</v>
       </c>
@@ -7390,8 +7880,11 @@
       <c r="K248" s="9">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="13">
         <v>45174</v>
       </c>
@@ -7425,8 +7918,11 @@
       <c r="K249" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="L249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="13">
         <v>45175</v>
       </c>
@@ -7460,8 +7956,11 @@
       <c r="K250" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="13">
         <v>45176</v>
       </c>
@@ -7495,8 +7994,11 @@
       <c r="K251" s="9">
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="13">
         <v>45177</v>
       </c>
@@ -7530,8 +8032,11 @@
       <c r="K252" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="13">
         <v>45178</v>
       </c>
@@ -7565,8 +8070,11 @@
       <c r="K253" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="L253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" s="13">
         <v>45179</v>
       </c>
@@ -7600,8 +8108,11 @@
       <c r="K254" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" s="13">
         <v>45180</v>
       </c>
@@ -7635,8 +8146,11 @@
       <c r="K255" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="L255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" s="13">
         <v>45181</v>
       </c>
@@ -7670,8 +8184,11 @@
       <c r="K256" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="L256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" s="13">
         <v>45182</v>
       </c>
@@ -7705,8 +8222,11 @@
       <c r="K257" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="L257" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" s="13">
         <v>45183</v>
       </c>
@@ -7740,8 +8260,11 @@
       <c r="K258" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="L258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" s="13">
         <v>45184</v>
       </c>
@@ -7775,8 +8298,11 @@
       <c r="K259" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" s="13">
         <v>45185</v>
       </c>
@@ -7810,8 +8336,11 @@
       <c r="K260" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="L260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" s="13">
         <v>45186</v>
       </c>
@@ -7845,8 +8374,11 @@
       <c r="K261" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="L261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" s="13">
         <v>45187</v>
       </c>
@@ -7880,8 +8412,11 @@
       <c r="K262" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="L262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" s="13">
         <v>45188</v>
       </c>
@@ -7915,8 +8450,11 @@
       <c r="K263" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="L263" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" s="13">
         <v>45189</v>
       </c>
@@ -7950,8 +8488,11 @@
       <c r="K264" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="L264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" s="13">
         <v>45190</v>
       </c>
@@ -7985,8 +8526,11 @@
       <c r="K265" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="L265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" s="13">
         <v>45191</v>
       </c>
@@ -8020,8 +8564,11 @@
       <c r="K266" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="L266" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" s="13">
         <v>45192</v>
       </c>
@@ -8055,8 +8602,11 @@
       <c r="K267" s="9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="L267" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" s="13">
         <v>45193</v>
       </c>
@@ -8090,8 +8640,11 @@
       <c r="K268" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="L268" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" s="13">
         <v>45194</v>
       </c>
@@ -8125,8 +8678,11 @@
       <c r="K269" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="L269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" s="13">
         <v>45195</v>
       </c>
@@ -8160,8 +8716,11 @@
       <c r="K270" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="L270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" s="13">
         <v>45196</v>
       </c>
@@ -8195,8 +8754,11 @@
       <c r="K271" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="L271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" s="13">
         <v>45197</v>
       </c>
@@ -8230,8 +8792,11 @@
       <c r="K272" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="L272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" s="13">
         <v>45198</v>
       </c>
@@ -8265,8 +8830,11 @@
       <c r="K273" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" s="13">
         <v>45199</v>
       </c>
@@ -8300,8 +8868,11 @@
       <c r="K274" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="L274" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" s="13">
         <v>45200</v>
       </c>
@@ -8335,8 +8906,11 @@
       <c r="K275" s="9">
         <v>2.8000000000000003</v>
       </c>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="L275" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" s="13">
         <v>45201</v>
       </c>
@@ -8370,8 +8944,11 @@
       <c r="K276" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" s="13">
         <v>45202</v>
       </c>
@@ -8405,8 +8982,11 @@
       <c r="K277" s="9">
         <v>18.999999999999996</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" s="13">
         <v>45203</v>
       </c>
@@ -8440,8 +9020,11 @@
       <c r="K278" s="9">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" s="13">
         <v>45204</v>
       </c>
@@ -8475,8 +9058,11 @@
       <c r="K279" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" s="13">
         <v>45205</v>
       </c>
@@ -8510,8 +9096,11 @@
       <c r="K280" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" s="13">
         <v>45206</v>
       </c>
@@ -8545,8 +9134,11 @@
       <c r="K281" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" s="13">
         <v>45207</v>
       </c>
@@ -8580,8 +9172,11 @@
       <c r="K282" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" s="13">
         <v>45208</v>
       </c>
@@ -8615,8 +9210,11 @@
       <c r="K283" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="L283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" s="13">
         <v>45209</v>
       </c>
@@ -8650,8 +9248,11 @@
       <c r="K284" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="L284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" s="13">
         <v>45210</v>
       </c>
@@ -8685,8 +9286,11 @@
       <c r="K285" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:11">
+      <c r="L285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" s="13">
         <v>45211</v>
       </c>
@@ -8720,8 +9324,11 @@
       <c r="K286" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11">
+      <c r="L286" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" s="13">
         <v>45212</v>
       </c>
@@ -8755,8 +9362,11 @@
       <c r="K287" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="L287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" s="13">
         <v>45213</v>
       </c>
@@ -8790,8 +9400,11 @@
       <c r="K288" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:11">
+      <c r="L288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" s="13">
         <v>45214</v>
       </c>
@@ -8825,8 +9438,11 @@
       <c r="K289" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:11">
+      <c r="L289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" s="13">
         <v>45215</v>
       </c>
@@ -8860,8 +9476,11 @@
       <c r="K290" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:11">
+      <c r="L290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" s="13">
         <v>45216</v>
       </c>
@@ -8895,8 +9514,11 @@
       <c r="K291" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:11">
+      <c r="L291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" s="13">
         <v>45217</v>
       </c>
@@ -8930,8 +9552,11 @@
       <c r="K292" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11">
+      <c r="L292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" s="13">
         <v>45218</v>
       </c>
@@ -8965,8 +9590,11 @@
       <c r="K293" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:11">
+      <c r="L293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" s="13">
         <v>45219</v>
       </c>
@@ -9000,8 +9628,11 @@
       <c r="K294" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11">
+      <c r="L294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" s="13">
         <v>45220</v>
       </c>
@@ -9035,8 +9666,11 @@
       <c r="K295" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:11">
+      <c r="L295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" s="13">
         <v>45221</v>
       </c>
@@ -9070,8 +9704,11 @@
       <c r="K296" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11">
+      <c r="L296" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" s="13">
         <v>45222</v>
       </c>
@@ -9105,8 +9742,11 @@
       <c r="K297" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11">
+      <c r="L297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" s="13">
         <v>45223</v>
       </c>
@@ -9140,8 +9780,11 @@
       <c r="K298" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="299" spans="1:11">
+      <c r="L298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" s="13">
         <v>45224</v>
       </c>
@@ -9175,8 +9818,11 @@
       <c r="K299" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:11">
+      <c r="L299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" s="13">
         <v>45225</v>
       </c>
@@ -9210,8 +9856,11 @@
       <c r="K300" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:11">
+      <c r="L300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" s="13">
         <v>45226</v>
       </c>
@@ -9245,8 +9894,11 @@
       <c r="K301" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11">
+      <c r="L301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" s="13">
         <v>45227</v>
       </c>
@@ -9280,8 +9932,11 @@
       <c r="K302" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:11">
+      <c r="L302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" s="13">
         <v>45228</v>
       </c>
@@ -9315,8 +9970,11 @@
       <c r="K303" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:11">
+      <c r="L303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" s="13">
         <v>45229</v>
       </c>
@@ -9350,8 +10008,11 @@
       <c r="K304" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:11">
+      <c r="L304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" s="13">
         <v>45230</v>
       </c>
@@ -9385,8 +10046,11 @@
       <c r="K305" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:11">
+      <c r="L305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" s="13">
         <v>45231</v>
       </c>
@@ -9401,7 +10065,7 @@
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:12">
       <c r="A307" s="13">
         <v>45232</v>
       </c>
@@ -9416,7 +10080,7 @@
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:12">
       <c r="A308" s="13">
         <v>45233</v>
       </c>
@@ -9431,7 +10095,7 @@
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:12">
       <c r="A309" s="13">
         <v>45234</v>
       </c>
@@ -9446,7 +10110,7 @@
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:12">
       <c r="A310" s="13">
         <v>45235</v>
       </c>
@@ -9461,7 +10125,7 @@
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:12">
       <c r="A311" s="13">
         <v>45236</v>
       </c>
@@ -9476,7 +10140,7 @@
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:12">
       <c r="A312" s="13">
         <v>45237</v>
       </c>
@@ -9491,7 +10155,7 @@
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:12">
       <c r="A313" s="13">
         <v>45238</v>
       </c>
@@ -9506,7 +10170,7 @@
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:12">
       <c r="A314" s="13">
         <v>45239</v>
       </c>
@@ -9521,7 +10185,7 @@
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:12">
       <c r="A315" s="13">
         <v>45240</v>
       </c>
@@ -9536,7 +10200,7 @@
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:12">
       <c r="A316" s="13">
         <v>45241</v>
       </c>
@@ -9551,7 +10215,7 @@
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:12">
       <c r="A317" s="13">
         <v>45242</v>
       </c>
@@ -9566,7 +10230,7 @@
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:12">
       <c r="A318" s="13">
         <v>45243</v>
       </c>
@@ -9581,7 +10245,7 @@
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:12">
       <c r="A319" s="13">
         <v>45244</v>
       </c>
@@ -9596,7 +10260,7 @@
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:12">
       <c r="A320" s="13">
         <v>45245</v>
       </c>

--- a/src/app_data/2023_met_data.xlsx
+++ b/src/app_data/2023_met_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joconnel\source\repos\souris-gui-test\src\app_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AB831-4421-4C4C-8734-65C5C884CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8912894B-F599-4D7C-89CC-1E7315882B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5610" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>05NB016_sol_rad</t>
   </si>
   <si>
-    <t>Oxbow</t>
+    <t>oxbow_precip</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,7 +527,8 @@
     <col min="9" max="9" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
